--- a/translation_english/제주도_예시.xlsx
+++ b/translation_english/제주도_예시.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박준호\2024년\NLP-Standard-Dialect-Transformation\translation_english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F08BBC-FFE3-4A4D-8F09-62C5355D7B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9951C5-C230-4677-B2F9-01B7BDB12E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="3435" windowWidth="28800" windowHeight="15435" xr2:uid="{E6C1081D-BF41-4A3A-A9AF-CD306BC1BF1A}"/>
+    <workbookView xWindow="3900" yWindow="2235" windowWidth="28800" windowHeight="15435" xr2:uid="{E6C1081D-BF41-4A3A-A9AF-CD306BC1BF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,47 +58,156 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>말도 한번도 안 말해보고 아무런 뭣도 안 했는데</t>
-  </si>
-  <si>
-    <t>I never said anything, and I didn't do anything.</t>
-  </si>
-  <si>
-    <t>말도 한번도 안 골아보고 아무런 뭣도 안 해신디</t>
-  </si>
-  <si>
-    <t>She never talks to me. She never talks to me.</t>
-  </si>
-  <si>
-    <t>그 정도까진 살만 할 거 같은디</t>
-  </si>
-  <si>
-    <t>I'm sure she'll be worth it.</t>
-  </si>
-  <si>
-    <t>그 정도까진 살만 할 거 닮은디</t>
-  </si>
-  <si>
-    <t>I'm sure you'll be fat enough to do that.</t>
-  </si>
-  <si>
-    <t>염색? 막 머리 하얗게 희게 변했냐?</t>
-  </si>
-  <si>
-    <t>Dye? Did you just turn your hair white?</t>
-  </si>
-  <si>
-    <t>염색? 막 머리 희엉행 희어샤?</t>
-  </si>
-  <si>
-    <t>Dye? What's wrong with your hair?</t>
+    <t>개인 택시도 하라고 하니까 안 해서</t>
+  </si>
+  <si>
+    <t>I was told to do it as a private taxi driver, but I didn't do it.</t>
+  </si>
+  <si>
+    <t>개인 택시도 허랭 하난 안 허영</t>
+  </si>
+  <si>
+    <t>Even private taxis don't lie like Haerang.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상 살지 같이같이 어울리면서 살아야 되는거야 아이고.</t>
+  </si>
+  <si>
+    <t>We should live together, sharing the world... Oh my...</t>
+  </si>
+  <si>
+    <t>세상 살암져 고치고치 어울리멍 살아사야 되는거라 아이고.</t>
+  </si>
+  <si>
+    <t>One must live and correct their ways, fitting in with the world, alas...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있을거야</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm going to Seoul now, so I'll probably be at university.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 서울 가난 대학교 헴실거라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now I'm going to Seoul National University.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +237,26 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +312,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A79F686-4CEC-4AD8-99E2-748A850E9989}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,7 +685,7 @@
     </row>
     <row r="2" spans="1:5" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>21888</v>
+        <v>5422</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -568,9 +700,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>14161</v>
+        <v>31423</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -587,9 +719,9 @@
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>53136</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>41330</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -601,6 +733,12 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
